--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
   <si>
     <t>anchor score</t>
   </si>
@@ -97,61 +97,61 @@
     <t>risk</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>share</t>
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9401709401709402</v>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.8807339449541285</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.8740157480314961</v>
@@ -1028,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.8642857142857143</v>
@@ -1078,7 +1078,7 @@
         <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.8484848484848485</v>
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>0.8125</v>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.802547770700637</v>
@@ -1228,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.7952127659574468</v>
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0.7931034482758621</v>
@@ -1328,28 +1328,28 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7456140350877193</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L12">
         <v>170</v>
       </c>
       <c r="M12">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1378,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>0.6966292134831461</v>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>0.6855123674911661</v>
@@ -1478,28 +1478,28 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="L15">
         <v>221</v>
       </c>
       <c r="M15">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1807,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1260504201680672</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="E22">
         <v>0.9399999999999999</v>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>52</v>
@@ -1857,25 +1857,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.05676855895196507</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E23">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F23">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
@@ -1907,25 +1907,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.05416666666666667</v>
+        <v>0.02283849918433932</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="E24">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F24">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>227</v>
+        <v>599</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
@@ -1957,28 +1957,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02283849918433932</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>302</v>
+        <v>581</v>
       </c>
       <c r="E25">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F25">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>599</v>
+        <v>1562</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25">
         <v>0.4666666666666667</v>
@@ -2007,25 +2007,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02068965517241379</v>
+        <v>0.01713062098501071</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>581</v>
+        <v>812</v>
       </c>
       <c r="E26">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F26">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1562</v>
+        <v>2295</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>55</v>
@@ -2053,30 +2053,6 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.01713062098501071</v>
-      </c>
-      <c r="C27">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <v>812</v>
-      </c>
-      <c r="E27">
-        <v>0.95</v>
-      </c>
-      <c r="F27">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2295</v>
-      </c>
       <c r="J27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2728,7 +2704,7 @@
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K52">
         <v>0.3246899661781285</v>
@@ -2754,7 +2730,7 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K53">
         <v>0.3244047619047619</v>
@@ -3196,7 +3172,7 @@
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K70">
         <v>0.2597156398104266</v>
@@ -3326,7 +3302,7 @@
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K75">
         <v>0.2517117704597326</v>
